--- a/pim/src/Pcmt/PcmtCustomDatasetBundle/Resources/fixtures/pcmt_global/import_files/5_families.xlsx
+++ b/pim/src/Pcmt/PcmtCustomDatasetBundle/Resources/fixtures/pcmt_global/import_files/5_families.xlsx
@@ -180,7 +180,7 @@
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>ACTIVE_INGREDIENT,ATC_CODE,BRAND_NAME,BRAND_OWNER_GLN,BRAND_OWNER_LOCATION,BRAND_OWNER_NAME,COUNTRY_OF_ORIGIN,COUNTRY_REGULATORY_CODE,DEPTH_MEASURE,DOSAGE_FORM,FREQUENCY,GPC_CODE,GROSS_WEIGHT_MEASURE,GTIN,GTIN_UNIT_LEVEL,HEIGHT_MEASURE,ITEM_DESCRIPTION,L3,LABELING,MANUFACTURER_GLN,MANUFACTURER_LOCATION,MANUFACTURER_NAME,MANUFACTURER_PART_NUM,MANU_SHORT,MAX_TEMPERATURE_MEASURE,MIN_TEMPERATURE_MEASURE,NET_CONTENT,NET_CONTENT_UOM,PRODUCT_DESCRIPTION,ParentID,ROUTE_OF_ADMINISTRATION,SHELF_LIFE_DAYS,SOURCEITEMID,SOURCE_OF_DATA,STORAGE_INSTRUCTIONS,STRENGTH,TRADE_ITEM_UNIT_DESCRIPTOR,UNSPSC_CODE,VOLUME_MEASURE,WIDTH_MEASURE,price_reference,sku</t>
+          <t>ACTIVE_INGREDIENT,ATC_CODE,BRAND_NAME,BRAND_OWNER_GLN,BRAND_OWNER_LOCATION,BRAND_OWNER_NAME,COUNTRY_OF_ORIGIN,COUNTRY_REGULATORY_CODE,DEPTH_MEASURE,DOSAGE_FORM,FREQUENCY,GPC_CODE,GROSS_WEIGHT_MEASURE,GTIN,GTIN_CASE_LEVEL,GTIN_INNERPACK_LEVEL,GTIN_PALLET_LEVEL,GTIN_UNIT_LEVEL,HEIGHT_MEASURE,ITEM_DESCRIPTION,L3,LABELING,MANUFACTURER_GLN,MANUFACTURER_LOCATION,MANUFACTURER_NAME,MANUFACTURER_PART_NUM,MANU_SHORT,MAX_TEMPERATURE_MEASURE,MIN_TEMPERATURE_MEASURE,NET_CONTENT,NET_CONTENT_UOM,PRODUCT_DESCRIPTION,ParentID,REGULATORY_EXPIRE_DATE,ROUTE_OF_ADMINISTRATION,SHELF_LIFE_DAYS,SOURCEITEMID,SOURCE_OF_DATA,STORAGE_INSTRUCTIONS,STRENGTH,TRADE_ITEM_UNIT_DESCRIPTOR,UNSPSC_CODE,VOLUME_MEASURE,WIDTH_MEASURE,price_reference,sku</t>
         </is>
       </c>
       <c r="E4" s="0" t="inlineStr">
@@ -190,7 +190,7 @@
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
-          <t>price_reference,PRODUCT_DESCRIPTION,sku</t>
+          <t>DOSAGE_FORM,price_reference,PRODUCT_DESCRIPTION,ROUTE_OF_ADMINISTRATION,sku</t>
         </is>
       </c>
       <c r="G4" s="0" t="inlineStr">
